--- a/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -487,6 +487,88 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42600.786805555559</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>5472</v>
+      </c>
+      <c r="D3">
+        <v>2026</v>
+      </c>
+      <c r="E3">
+        <v>356</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>82</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42600.825462962966</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>4727</v>
+      </c>
+      <c r="D4">
+        <v>1603</v>
+      </c>
+      <c r="E4">
+        <v>318</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>83</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +569,129 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42602.514305555553</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>4901</v>
+      </c>
+      <c r="D5">
+        <v>1653</v>
+      </c>
+      <c r="E5">
+        <v>289</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>71</v>
+      </c>
+      <c r="I5">
+        <v>28</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42602.516250000001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>5675</v>
+      </c>
+      <c r="D6">
+        <v>1411</v>
+      </c>
+      <c r="E6">
+        <v>237</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>69</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42602.517106481479</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>5290</v>
+      </c>
+      <c r="D7">
+        <v>1654</v>
+      </c>
+      <c r="E7">
+        <v>289</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>71</v>
+      </c>
+      <c r="I7">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>Noun</t>
   </si>
 </sst>
 </file>
@@ -101,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -405,7 +409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -446,6 +450,182 @@
       </c>
       <c r="N1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42606.574780092589</v>
+      </c>
+      <c r="B2">
+        <v>-52</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>3910</v>
+      </c>
+      <c r="H2">
+        <v>1204</v>
+      </c>
+      <c r="I2">
+        <v>215</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42606.575844907406</v>
+      </c>
+      <c r="B3">
+        <v>-26</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>3957</v>
+      </c>
+      <c r="H3">
+        <v>1587</v>
+      </c>
+      <c r="I3">
+        <v>308</v>
+      </c>
+      <c r="J3">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42606.580914351849</v>
+      </c>
+      <c r="B4">
+        <v>-26</v>
+      </c>
+      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>4308</v>
+      </c>
+      <c r="H4">
+        <v>1587</v>
+      </c>
+      <c r="I4">
+        <v>308</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42606.581307870372</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>4848</v>
+      </c>
+      <c r="H5">
+        <v>1905</v>
+      </c>
+      <c r="I5">
+        <v>368</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>33</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>Noun</t>
   </si>
 </sst>
 </file>
@@ -101,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -405,7 +409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -446,6 +450,94 @@
       </c>
       <c r="N1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42609.642488425925</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>13710</v>
+      </c>
+      <c r="H2">
+        <v>10567</v>
+      </c>
+      <c r="I2">
+        <v>1697</v>
+      </c>
+      <c r="J2">
+        <v>201</v>
+      </c>
+      <c r="K2">
+        <v>116</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42609.647094907406</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>13233</v>
+      </c>
+      <c r="H3">
+        <v>10546</v>
+      </c>
+      <c r="I3">
+        <v>1686</v>
+      </c>
+      <c r="J3">
+        <v>202</v>
+      </c>
+      <c r="K3">
+        <v>117</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/SAVE/SAVENoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,6 +540,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42624.625648148147</v>
+      </c>
+      <c r="B4">
+        <v>-60</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>8835</v>
+      </c>
+      <c r="H4">
+        <v>5494</v>
+      </c>
+      <c r="I4">
+        <v>713</v>
+      </c>
+      <c r="J4">
+        <v>91</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
